--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.668329</v>
       </c>
       <c r="I2">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J2">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.5645055</v>
+        <v>3.6634025</v>
       </c>
       <c r="N2">
-        <v>23.129011</v>
+        <v>7.326805</v>
       </c>
       <c r="O2">
-        <v>0.327436949529422</v>
+        <v>0.3299483889703428</v>
       </c>
       <c r="P2">
-        <v>0.2873950818646905</v>
+        <v>0.2706254332402993</v>
       </c>
       <c r="Q2">
-        <v>2.576298132103167</v>
+        <v>0.8161193764741667</v>
       </c>
       <c r="R2">
-        <v>15.457788792619</v>
+        <v>4.896716258845</v>
       </c>
       <c r="S2">
-        <v>0.1716486286165349</v>
+        <v>0.08793412533547827</v>
       </c>
       <c r="T2">
-        <v>0.158839258828739</v>
+        <v>0.0882259120408538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.668329</v>
       </c>
       <c r="I3">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J3">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.550051</v>
       </c>
       <c r="O3">
-        <v>0.1373231887559601</v>
+        <v>0.4368221334207134</v>
       </c>
       <c r="P3">
-        <v>0.1807951536829838</v>
+        <v>0.5374257750197324</v>
       </c>
       <c r="Q3">
         <v>1.080469003864333</v>
       </c>
       <c r="R3">
-        <v>9.724221034779001</v>
+        <v>9.724221034778999</v>
       </c>
       <c r="S3">
-        <v>0.07198740722782142</v>
+        <v>0.116416910988405</v>
       </c>
       <c r="T3">
-        <v>0.09992296327587695</v>
+        <v>0.1752048157028796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,40 +673,40 @@
         <v>0.668329</v>
       </c>
       <c r="I4">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J4">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.9121915</v>
+        <v>0.01767166666666667</v>
       </c>
       <c r="N4">
-        <v>27.824383</v>
+        <v>0.053015</v>
       </c>
       <c r="O4">
-        <v>0.393909237712685</v>
+        <v>0.001591618160190581</v>
       </c>
       <c r="P4">
-        <v>0.3457385544984826</v>
+        <v>0.001958180590753332</v>
       </c>
       <c r="Q4">
-        <v>3.099307011001166</v>
+        <v>0.003936829103888888</v>
       </c>
       <c r="R4">
-        <v>18.595842066007</v>
+        <v>0.035431461935</v>
       </c>
       <c r="S4">
-        <v>0.2064946566046955</v>
+        <v>0.0004241801307810048</v>
       </c>
       <c r="T4">
-        <v>0.1910848835294759</v>
+        <v>0.0006383814946413702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,40 +735,40 @@
         <v>0.668329</v>
       </c>
       <c r="I5">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J5">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991552666666666</v>
+        <v>2.571865</v>
       </c>
       <c r="N5">
-        <v>14.974658</v>
+        <v>5.14373</v>
       </c>
       <c r="O5">
-        <v>0.1413306240019329</v>
+        <v>0.2316378594487531</v>
       </c>
       <c r="P5">
-        <v>0.186071209953843</v>
+        <v>0.1899906111492151</v>
       </c>
       <c r="Q5">
-        <v>1.111999800720222</v>
+        <v>0.5729506545283333</v>
       </c>
       <c r="R5">
-        <v>10.007998206482</v>
+        <v>3.437703927169999</v>
       </c>
       <c r="S5">
-        <v>0.07408818041554313</v>
+        <v>0.06173351119783584</v>
       </c>
       <c r="T5">
-        <v>0.1028389660904155</v>
+        <v>0.06193835792571262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H6">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I6">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J6">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.5645055</v>
+        <v>3.6634025</v>
       </c>
       <c r="N6">
-        <v>23.129011</v>
+        <v>7.326805</v>
       </c>
       <c r="O6">
-        <v>0.327436949529422</v>
+        <v>0.3299483889703428</v>
       </c>
       <c r="P6">
-        <v>0.2873950818646905</v>
+        <v>0.2706254332402993</v>
       </c>
       <c r="Q6">
-        <v>0.3609320714901666</v>
+        <v>0.4857989209883334</v>
       </c>
       <c r="R6">
-        <v>2.165592428941</v>
+        <v>2.91479352593</v>
       </c>
       <c r="S6">
-        <v>0.02404748671087859</v>
+        <v>0.05234320423879853</v>
       </c>
       <c r="T6">
-        <v>0.02225293028342877</v>
+        <v>0.05251689165600282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H7">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I7">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J7">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>14.550051</v>
       </c>
       <c r="O7">
-        <v>0.1373231887559601</v>
+        <v>0.4368221334207134</v>
       </c>
       <c r="P7">
-        <v>0.1807951536829838</v>
+        <v>0.5374257750197324</v>
       </c>
       <c r="Q7">
-        <v>0.1513706472423333</v>
+        <v>0.6431542876806667</v>
       </c>
       <c r="R7">
-        <v>1.362335825181</v>
+        <v>5.788388589126</v>
       </c>
       <c r="S7">
-        <v>0.01008523186357041</v>
+        <v>0.06929771718850028</v>
       </c>
       <c r="T7">
-        <v>0.01399892414437146</v>
+        <v>0.1042914956732594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,46 +915,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H8">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I8">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J8">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.9121915</v>
+        <v>0.01767166666666667</v>
       </c>
       <c r="N8">
-        <v>27.824383</v>
+        <v>0.053015</v>
       </c>
       <c r="O8">
-        <v>0.393909237712685</v>
+        <v>0.001591618160190581</v>
       </c>
       <c r="P8">
-        <v>0.3457385544984826</v>
+        <v>0.001958180590753332</v>
       </c>
       <c r="Q8">
-        <v>0.4342041341121666</v>
+        <v>0.002343416154444445</v>
       </c>
       <c r="R8">
-        <v>2.605224804673</v>
+        <v>0.02109074539</v>
       </c>
       <c r="S8">
-        <v>0.02892931653804376</v>
+        <v>0.0002524952302056084</v>
       </c>
       <c r="T8">
-        <v>0.02677045097511608</v>
+        <v>0.0003799996057139489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +977,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H9">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I9">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J9">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.991552666666666</v>
+        <v>2.571865</v>
       </c>
       <c r="N9">
-        <v>14.974658</v>
+        <v>5.14373</v>
       </c>
       <c r="O9">
-        <v>0.1413306240019329</v>
+        <v>0.2316378594487531</v>
       </c>
       <c r="P9">
-        <v>0.186071209953843</v>
+        <v>0.1899906111492151</v>
       </c>
       <c r="Q9">
-        <v>0.1557880225775555</v>
+        <v>0.3410515884966667</v>
       </c>
       <c r="R9">
-        <v>1.402092203198</v>
+        <v>2.04630953098</v>
       </c>
       <c r="S9">
-        <v>0.01037954423717618</v>
+        <v>0.03674716468354694</v>
       </c>
       <c r="T9">
-        <v>0.01440744787972944</v>
+        <v>0.03686910066771688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H10">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I10">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J10">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.5645055</v>
+        <v>3.6634025</v>
       </c>
       <c r="N10">
-        <v>23.129011</v>
+        <v>7.326805</v>
       </c>
       <c r="O10">
-        <v>0.327436949529422</v>
+        <v>0.3299483889703428</v>
       </c>
       <c r="P10">
-        <v>0.2873950818646905</v>
+        <v>0.2706254332402993</v>
       </c>
       <c r="Q10">
-        <v>0.7594006004157499</v>
+        <v>1.6766550659925</v>
       </c>
       <c r="R10">
-        <v>3.037602401662999</v>
+        <v>6.706620263970001</v>
       </c>
       <c r="S10">
-        <v>0.05059588019245469</v>
+        <v>0.1806539594174382</v>
       </c>
       <c r="T10">
-        <v>0.03121342389714464</v>
+        <v>0.1208356086452087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H11">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I11">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J11">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>14.550051</v>
       </c>
       <c r="O11">
-        <v>0.1373231887559601</v>
+        <v>0.4368221334207134</v>
       </c>
       <c r="P11">
-        <v>0.1807951536829838</v>
+        <v>0.5374257750197324</v>
       </c>
       <c r="Q11">
-        <v>0.3184836413304999</v>
+        <v>2.219741230509</v>
       </c>
       <c r="R11">
-        <v>1.910901847983</v>
+        <v>13.318447383054</v>
       </c>
       <c r="S11">
-        <v>0.02121931448459846</v>
+        <v>0.2391696719898743</v>
       </c>
       <c r="T11">
-        <v>0.01963581190687632</v>
+        <v>0.2399632948336728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H12">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I12">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J12">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>13.9121915</v>
+        <v>0.01767166666666667</v>
       </c>
       <c r="N12">
-        <v>27.824383</v>
+        <v>0.053015</v>
       </c>
       <c r="O12">
-        <v>0.393909237712685</v>
+        <v>0.001591618160190581</v>
       </c>
       <c r="P12">
-        <v>0.3457385544984826</v>
+        <v>0.001958180590753332</v>
       </c>
       <c r="Q12">
-        <v>0.9135649231347498</v>
+        <v>0.008087915385</v>
       </c>
       <c r="R12">
-        <v>3.654259692538999</v>
+        <v>0.04852749231</v>
       </c>
       <c r="S12">
-        <v>0.06086724368357008</v>
+        <v>0.0008714457537326285</v>
       </c>
       <c r="T12">
-        <v>0.03754999559883927</v>
+        <v>0.0008743374216081554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H13">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I13">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J13">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.991552666666666</v>
+        <v>2.571865</v>
       </c>
       <c r="N13">
-        <v>14.974658</v>
+        <v>5.14373</v>
       </c>
       <c r="O13">
-        <v>0.1413306240019329</v>
+        <v>0.2316378594487531</v>
       </c>
       <c r="P13">
-        <v>0.186071209953843</v>
+        <v>0.1899906111492151</v>
       </c>
       <c r="Q13">
-        <v>0.3277777931856666</v>
+        <v>1.177083457605</v>
       </c>
       <c r="R13">
-        <v>1.966666759114</v>
+        <v>4.70833383042</v>
       </c>
       <c r="S13">
-        <v>0.02183854732889309</v>
+        <v>0.1268267943086051</v>
       </c>
       <c r="T13">
-        <v>0.02020883417232013</v>
+        <v>0.08483175753368888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H14">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I14">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J14">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.5645055</v>
+        <v>3.6634025</v>
       </c>
       <c r="N14">
-        <v>23.129011</v>
+        <v>7.326805</v>
       </c>
       <c r="O14">
-        <v>0.327436949529422</v>
+        <v>0.3299483889703428</v>
       </c>
       <c r="P14">
-        <v>0.2873950818646905</v>
+        <v>0.2706254332402993</v>
       </c>
       <c r="Q14">
-        <v>1.2179158967325</v>
+        <v>0.06081614490250001</v>
       </c>
       <c r="R14">
-        <v>7.307495380395</v>
+        <v>0.364896869415</v>
       </c>
       <c r="S14">
-        <v>0.08114495400955384</v>
+        <v>0.006552735619856126</v>
       </c>
       <c r="T14">
-        <v>0.07508946885537805</v>
+        <v>0.00657447918221511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H15">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I15">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J15">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.550051</v>
       </c>
       <c r="O15">
-        <v>0.1373231887559601</v>
+        <v>0.4368221334207134</v>
       </c>
       <c r="P15">
-        <v>0.1807951536829838</v>
+        <v>0.5374257750197324</v>
       </c>
       <c r="Q15">
-        <v>0.5107795403550001</v>
+        <v>0.080515132217</v>
       </c>
       <c r="R15">
-        <v>4.597015863195001</v>
+        <v>0.7246361899529999</v>
       </c>
       <c r="S15">
-        <v>0.0340312351799698</v>
+        <v>0.008675235427395093</v>
       </c>
       <c r="T15">
-        <v>0.04723745435585908</v>
+        <v>0.01305603293654849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H16">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I16">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J16">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>13.9121915</v>
+        <v>0.01767166666666667</v>
       </c>
       <c r="N16">
-        <v>27.824383</v>
+        <v>0.053015</v>
       </c>
       <c r="O16">
-        <v>0.393909237712685</v>
+        <v>0.001591618160190581</v>
       </c>
       <c r="P16">
-        <v>0.3457385544984826</v>
+        <v>0.001958180590753332</v>
       </c>
       <c r="Q16">
-        <v>1.4651624478225</v>
+        <v>0.0002933673383333334</v>
       </c>
       <c r="R16">
-        <v>8.790974686935</v>
+        <v>0.002640306045</v>
       </c>
       <c r="S16">
-        <v>0.09761802088637563</v>
+        <v>3.160934667399796E-05</v>
       </c>
       <c r="T16">
-        <v>0.09033322439505134</v>
+        <v>4.757135120221353E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016601</v>
+      </c>
+      <c r="H17">
+        <v>0.049803</v>
+      </c>
+      <c r="I17">
+        <v>0.01985988063255891</v>
+      </c>
+      <c r="J17">
+        <v>0.02429364861793076</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.571865</v>
+      </c>
+      <c r="N17">
+        <v>5.14373</v>
+      </c>
+      <c r="O17">
+        <v>0.2316378594487531</v>
+      </c>
+      <c r="P17">
+        <v>0.1899906111492151</v>
+      </c>
+      <c r="Q17">
+        <v>0.042695530865</v>
+      </c>
+      <c r="R17">
+        <v>0.25617318519</v>
+      </c>
+      <c r="S17">
+        <v>0.004600300238633695</v>
+      </c>
+      <c r="T17">
+        <v>0.004615565147964948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E17">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.01873</v>
+      </c>
+      <c r="I18">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J18">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.105315</v>
-      </c>
-      <c r="H17">
-        <v>0.315945</v>
-      </c>
-      <c r="I17">
-        <v>0.2478185620962198</v>
-      </c>
-      <c r="J17">
-        <v>0.2612761094176663</v>
-      </c>
-      <c r="K17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.6634025</v>
+      </c>
+      <c r="N18">
+        <v>7.326805</v>
+      </c>
+      <c r="O18">
+        <v>0.3299483889703428</v>
+      </c>
+      <c r="P18">
+        <v>0.2706254332402993</v>
+      </c>
+      <c r="Q18">
+        <v>0.02287184294166667</v>
+      </c>
+      <c r="R18">
+        <v>0.13723105765</v>
+      </c>
+      <c r="S18">
+        <v>0.002464364358771665</v>
+      </c>
+      <c r="T18">
+        <v>0.002472541716018894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.01873</v>
+      </c>
+      <c r="I19">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J19">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.991552666666666</v>
-      </c>
-      <c r="N17">
-        <v>14.974658</v>
-      </c>
-      <c r="O17">
-        <v>0.1413306240019329</v>
-      </c>
-      <c r="P17">
-        <v>0.186071209953843</v>
-      </c>
-      <c r="Q17">
-        <v>0.52568536909</v>
-      </c>
-      <c r="R17">
-        <v>4.73116832181</v>
-      </c>
-      <c r="S17">
-        <v>0.0350243520203205</v>
-      </c>
-      <c r="T17">
-        <v>0.04861596181137784</v>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.850017</v>
+      </c>
+      <c r="N19">
+        <v>14.550051</v>
+      </c>
+      <c r="O19">
+        <v>0.4368221334207134</v>
+      </c>
+      <c r="P19">
+        <v>0.5374257750197324</v>
+      </c>
+      <c r="Q19">
+        <v>0.03028027280333333</v>
+      </c>
+      <c r="R19">
+        <v>0.27252245523</v>
+      </c>
+      <c r="S19">
+        <v>0.003262597826538764</v>
+      </c>
+      <c r="T19">
+        <v>0.00491013587337215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.01873</v>
+      </c>
+      <c r="I20">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J20">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01767166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.053015</v>
+      </c>
+      <c r="O20">
+        <v>0.001591618160190581</v>
+      </c>
+      <c r="P20">
+        <v>0.001958180590753332</v>
+      </c>
+      <c r="Q20">
+        <v>0.0001103301055555555</v>
+      </c>
+      <c r="R20">
+        <v>0.00099297095</v>
+      </c>
+      <c r="S20">
+        <v>1.188769879734116E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.789071758764451E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.01873</v>
+      </c>
+      <c r="I21">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J21">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.571865</v>
+      </c>
+      <c r="N21">
+        <v>5.14373</v>
+      </c>
+      <c r="O21">
+        <v>0.2316378594487531</v>
+      </c>
+      <c r="P21">
+        <v>0.1899906111492151</v>
+      </c>
+      <c r="Q21">
+        <v>0.01605701048333333</v>
+      </c>
+      <c r="R21">
+        <v>0.0963420629</v>
+      </c>
+      <c r="S21">
+        <v>0.0017300890201315</v>
+      </c>
+      <c r="T21">
+        <v>0.001735829874131749</v>
       </c>
     </row>
   </sheetData>
